--- a/VQC R work/Data Sheets/PFAS_Rdata_UrineVolume.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Rdata_UrineVolume.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28724"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDD44DEF-921D-46F0-B12E-754BBAF5622A}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keckmedicine-my.sharepoint.com/personal/victoria_quonchow_med_usc_edu/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D24ACFAF-514F-41C2-AAAB-C96065F54654}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="14800" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,15 +484,15 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="B1:M1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" s="3">
         <v>3920</v>
       </c>
@@ -525,8 +530,10 @@
         <v>3939</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45737</v>
+      </c>
       <c r="B2" s="6">
         <v>5.7</v>
       </c>
@@ -562,8 +569,10 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>45742</v>
+      </c>
       <c r="B3" s="2">
         <v>5.9</v>
       </c>
@@ -601,8 +610,10 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>45749</v>
+      </c>
       <c r="B4" s="2">
         <v>5.9</v>
       </c>
@@ -640,7 +651,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -655,7 +666,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -670,7 +681,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>

--- a/VQC R work/Data Sheets/PFAS_Rdata_UrineVolume.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Rdata_UrineVolume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keckmedicine-my.sharepoint.com/personal/victoria_quonchow_med_usc_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D24ACFAF-514F-41C2-AAAB-C96065F54654}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE07BBB4-9258-764D-8BCF-9232F2137990}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="14800" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="26780" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -63,21 +63,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -133,19 +118,46 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -493,40 +505,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="3">
+      <c r="B1" s="2">
         <v>3920</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3">
         <v>3921</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>3922</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>3923</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>3932</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="3">
         <v>3933</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="3">
         <v>3934</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="3">
         <v>3935</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="3">
         <v>3936</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="3">
         <v>3937</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="3">
         <v>3938</v>
       </c>
-      <c r="M1" s="5">
+      <c r="M1" s="4">
         <v>3939</v>
       </c>
     </row>
@@ -573,40 +585,40 @@
       <c r="A3" s="1">
         <v>45742</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="7">
         <v>5.9</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="7">
         <v>6</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="7">
         <v>6.5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="7">
         <v>6.4</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="7">
         <v>6.3</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="7">
         <v>6.9</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="7">
         <v>7.9</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="7">
         <v>5.8</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="7">
         <v>6.6</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="7">
         <v>5.6</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="7">
         <v>6.4</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="7">
         <v>6.4</v>
       </c>
     </row>
@@ -614,87 +626,113 @@
       <c r="A4" s="1">
         <v>45749</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="7">
         <v>5.9</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="7">
         <v>5.2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="7">
         <v>7.5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="7">
         <v>6.9</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="7">
         <v>5.4</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="7">
         <v>7.9</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="7">
         <v>6.4</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="7">
         <v>6</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="7">
         <v>7</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="7">
         <v>6.3</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="7">
         <v>6.8</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="7">
         <v>6.2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="A5" s="1">
+        <v>45756</v>
+      </c>
+      <c r="B5" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="C5" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="E5" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="F5" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="G5" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="H5" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="I5" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="J5" s="7">
+        <v>12.1</v>
+      </c>
+      <c r="K5" s="7">
+        <v>12.7</v>
+      </c>
+      <c r="L5" s="7">
+        <v>7.4</v>
+      </c>
+      <c r="M5" s="7">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VQC R work/Data Sheets/PFAS_Rdata_UrineVolume.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Rdata_UrineVolume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keckmedicine-my.sharepoint.com/personal/victoria_quonchow_med_usc_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE07BBB4-9258-764D-8BCF-9232F2137990}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C55FD155-E940-7748-873F-2F173AFA85E7}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="26780" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -705,19 +705,45 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="A6" s="1">
+        <v>45763</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="F6" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="G6" s="7">
+        <v>5</v>
+      </c>
+      <c r="H6" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="I6" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="J6" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="K6" s="7">
+        <v>11.6</v>
+      </c>
+      <c r="L6" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M6" s="7">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>

--- a/VQC R work/Data Sheets/PFAS_Rdata_UrineVolume.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Rdata_UrineVolume.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keckmedicine-my.sharepoint.com/personal/victoria_quonchow_med_usc_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C55FD155-E940-7748-873F-2F173AFA85E7}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCF7EB8D-EE77-C341-8A3E-2D5762CD81E2}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="26780" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -146,11 +146,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -159,6 +183,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,7 +522,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -691,7 +717,7 @@
       <c r="I5" s="7">
         <v>6.2</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="8">
         <v>12.1</v>
       </c>
       <c r="K5" s="7">
@@ -732,7 +758,7 @@
       <c r="I6" s="7">
         <v>5.5</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="8">
         <v>4.7</v>
       </c>
       <c r="K6" s="7">
@@ -746,16 +772,34 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="A7" s="1">
+        <v>45769</v>
+      </c>
+      <c r="B7" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="C7" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="G7" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H7" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="I7" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="J7" s="9"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
